--- a/CRM/Mapeos_CLS_CRM_V2.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V2.xlsx
@@ -3479,6 +3479,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3526,22 +3542,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -4023,7 +4023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4071,11 +4071,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -4083,11 +4083,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -4095,11 +4095,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -4107,11 +4107,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4123,29 +4123,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4731,11 +4731,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -4743,11 +4743,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -4755,11 +4755,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -4767,11 +4767,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4783,29 +4783,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5403,11 +5403,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -5415,11 +5415,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -5427,11 +5427,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -5439,11 +5439,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5455,29 +5455,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6021,7 +6021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -6059,11 +6059,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -6071,11 +6071,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -6083,11 +6083,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -6095,11 +6095,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6111,29 +6111,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6185,16 +6185,16 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="95">
+      <c r="B9" s="79">
         <v>1</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="102" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="86" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="47"/>
@@ -6231,7 +6231,7 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="78" t="s">
         <v>168</v>
       </c>
       <c r="D10" s="48"/>
@@ -6270,7 +6270,7 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="78" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="48"/>
@@ -6309,7 +6309,7 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="78" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="48"/>
@@ -6348,7 +6348,7 @@
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="78" t="s">
         <v>169</v>
       </c>
       <c r="D13" s="31"/>
@@ -6387,7 +6387,7 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="78" t="s">
         <v>170</v>
       </c>
       <c r="D14" s="31"/>
@@ -6426,7 +6426,7 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="78" t="s">
         <v>171</v>
       </c>
       <c r="D15" s="31"/>
@@ -6465,7 +6465,7 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="78" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="31"/>
@@ -6504,7 +6504,7 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="78" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="31"/>
@@ -6543,7 +6543,7 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="78" t="s">
         <v>174</v>
       </c>
       <c r="D18" s="31"/>
@@ -6582,7 +6582,7 @@
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="78" t="s">
         <v>175</v>
       </c>
       <c r="D19" s="31"/>
@@ -6621,7 +6621,7 @@
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="78" t="s">
         <v>176</v>
       </c>
       <c r="D20" s="31"/>
@@ -6652,7 +6652,7 @@
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="78" t="s">
         <v>177</v>
       </c>
       <c r="D21" s="31"/>
@@ -6682,7 +6682,7 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="78" t="s">
         <v>178</v>
       </c>
       <c r="D22" s="31"/>
@@ -6712,7 +6712,7 @@
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="78" t="s">
         <v>179</v>
       </c>
       <c r="D23" s="31"/>
@@ -6742,7 +6742,7 @@
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="78" t="s">
         <v>180</v>
       </c>
       <c r="D24" s="31"/>
@@ -6772,7 +6772,7 @@
       <c r="B25" s="25">
         <v>17</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="78" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="31"/>
@@ -6785,7 +6785,7 @@
       <c r="B26" s="25">
         <v>18</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="78" t="s">
         <v>182</v>
       </c>
       <c r="D26" s="31"/>
@@ -6798,7 +6798,7 @@
       <c r="B27" s="25">
         <v>19</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="78" t="s">
         <v>183</v>
       </c>
       <c r="D27" s="31"/>
@@ -6811,7 +6811,7 @@
       <c r="B28" s="25">
         <v>20</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="78" t="s">
         <v>184</v>
       </c>
       <c r="D28" s="31"/>
@@ -6824,7 +6824,7 @@
       <c r="B29" s="25">
         <v>21</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="78" t="s">
         <v>185</v>
       </c>
       <c r="D29" s="31"/>
@@ -6837,7 +6837,7 @@
       <c r="B30" s="25">
         <v>22</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="78" t="s">
         <v>186</v>
       </c>
       <c r="D30" s="31"/>
@@ -6850,7 +6850,7 @@
       <c r="B31" s="25">
         <v>23</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="78" t="s">
         <v>187</v>
       </c>
       <c r="D31" s="31"/>
@@ -6863,7 +6863,7 @@
       <c r="B32" s="25">
         <v>24</v>
       </c>
-      <c r="C32" s="94" t="s">
+      <c r="C32" s="78" t="s">
         <v>188</v>
       </c>
       <c r="D32" s="31"/>
@@ -6876,7 +6876,7 @@
       <c r="B33" s="25">
         <v>25</v>
       </c>
-      <c r="C33" s="94" t="s">
+      <c r="C33" s="78" t="s">
         <v>189</v>
       </c>
       <c r="D33" s="31"/>
@@ -6889,7 +6889,7 @@
       <c r="B34" s="25">
         <v>26</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D34" s="31"/>
@@ -6902,7 +6902,7 @@
       <c r="B35" s="25">
         <v>27</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="78" t="s">
         <v>191</v>
       </c>
       <c r="D35" s="31"/>
@@ -6915,7 +6915,7 @@
       <c r="B36" s="25">
         <v>28</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="78" t="s">
         <v>192</v>
       </c>
       <c r="D36" s="31"/>
@@ -6928,7 +6928,7 @@
       <c r="B37" s="25">
         <v>29</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="78" t="s">
         <v>193</v>
       </c>
       <c r="D37" s="31"/>
@@ -6941,7 +6941,7 @@
       <c r="B38" s="25">
         <v>30</v>
       </c>
-      <c r="C38" s="94" t="s">
+      <c r="C38" s="78" t="s">
         <v>194</v>
       </c>
       <c r="D38" s="31"/>
@@ -6954,7 +6954,7 @@
       <c r="B39" s="25">
         <v>31</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="78" t="s">
         <v>195</v>
       </c>
       <c r="D39" s="31"/>
@@ -6967,7 +6967,7 @@
       <c r="B40" s="25">
         <v>32</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="78" t="s">
         <v>196</v>
       </c>
       <c r="D40" s="31"/>
@@ -6980,7 +6980,7 @@
       <c r="B41" s="25">
         <v>33</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="78" t="s">
         <v>149</v>
       </c>
       <c r="D41" s="31"/>
@@ -6993,7 +6993,7 @@
       <c r="B42" s="25">
         <v>34</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="78" t="s">
         <v>150</v>
       </c>
       <c r="D42" s="31"/>
@@ -7006,7 +7006,7 @@
       <c r="B43" s="25">
         <v>35</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="78" t="s">
         <v>151</v>
       </c>
       <c r="D43" s="31"/>
@@ -7019,7 +7019,7 @@
       <c r="B44" s="25">
         <v>36</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="78" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="31"/>
@@ -7032,7 +7032,7 @@
       <c r="B45" s="25">
         <v>37</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="78" t="s">
         <v>114</v>
       </c>
       <c r="D45" s="31"/>
@@ -7042,16 +7042,16 @@
       <c r="H45" s="63"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="99">
+      <c r="B46" s="83">
         <v>38</v>
       </c>
-      <c r="C46" s="100" t="s">
+      <c r="C46" s="84" t="s">
         <v>143</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="103"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="87"/>
       <c r="H46" s="64"/>
     </row>
   </sheetData>
@@ -7112,11 +7112,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -7124,11 +7124,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -7136,11 +7136,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -7148,11 +7148,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7164,29 +7164,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -7756,11 +7756,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -7768,11 +7768,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -7780,11 +7780,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -7792,11 +7792,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -7808,29 +7808,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8389,11 +8389,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -8401,11 +8401,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -8413,11 +8413,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -8425,11 +8425,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8441,29 +8441,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9145,11 +9145,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -9157,11 +9157,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -9169,11 +9169,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -9181,11 +9181,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9197,29 +9197,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9766,11 +9766,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -9778,11 +9778,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -9790,11 +9790,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -9802,11 +9802,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9818,29 +9818,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10424,11 +10424,11 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
@@ -10436,11 +10436,11 @@
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -10448,11 +10448,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -10460,11 +10460,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10476,29 +10476,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
